--- a/src/main/resources/template/excel/export/deliverySumForm.xlsx
+++ b/src/main/resources/template/excel/export/deliverySumForm.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr/>
+  <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
@@ -36,7 +36,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:area(lastCell="O3")</t>
+          <t>jx:area(lastCell="P3")</t>
         </r>
       </text>
     </comment>
@@ -49,7 +49,7 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>jx:each(items="reportList" var="obj" lastCell="O3")</t>
+          <t>jx:each(items="reportList" var="obj" lastCell="P3")</t>
         </r>
       </text>
     </comment>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>要货数量</t>
   </si>
@@ -179,15 +179,23 @@
   </si>
   <si>
     <t>${obj.DIAmount}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>SKU缺货率</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>${obj.skuLackRate}</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0.0000_ "/>
+    <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -284,7 +292,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -293,16 +301,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -609,10 +617,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S3"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="Q3" sqref="Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -620,31 +628,32 @@
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
     <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="15" width="12.625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="16.875" customWidth="1"/>
-    <col min="19" max="19" width="20.875" customWidth="1"/>
+    <col min="4" max="16" width="12.625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
+    <col min="20" max="20" width="20.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -654,48 +663,51 @@
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="L2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="M2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="N2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="O2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="P2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
       <c r="S2"/>
+      <c r="T2"/>
     </row>
-    <row r="3" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
@@ -724,27 +736,30 @@
         <v>26</v>
       </c>
       <c r="J3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K3" s="5" t="s">
+      <c r="L3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="M3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="N3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="O3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="P3" s="5" t="s">
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:O1"/>
+    <mergeCell ref="A1:P1"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/template/excel/export/deliverySumForm.xlsx
+++ b/src/main/resources/template/excel/export/deliverySumForm.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\java\workspace\okdeer-jxc-web\src\main\resources\template\excel\export\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jason4j/develop/okdeer/okdeer-jxc-web/src/main/resources/template/excel/export/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27570" windowHeight="11505"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="11500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -17,6 +17,11 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -27,7 +32,7 @@
     <author>ccm</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -40,7 +45,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A3" authorId="1" shapeId="0">
+    <comment ref="A3" authorId="1">
       <text>
         <r>
           <rPr>
@@ -193,9 +198,10 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="2">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -285,7 +291,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -312,13 +318,16 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -331,7 +340,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -373,7 +382,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -408,7 +417,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -620,17 +629,17 @@
   <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="19.5" customWidth="1"/>
-    <col min="3" max="3" width="18.625" customWidth="1"/>
-    <col min="4" max="16" width="12.625" style="2" customWidth="1"/>
-    <col min="17" max="17" width="16.875" customWidth="1"/>
-    <col min="20" max="20" width="20.875" customWidth="1"/>
+    <col min="3" max="3" width="18.6640625" customWidth="1"/>
+    <col min="4" max="16" width="12.6640625" style="2" customWidth="1"/>
+    <col min="17" max="17" width="16.83203125" customWidth="1"/>
+    <col min="20" max="20" width="20.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="30" customHeight="1" x14ac:dyDescent="0.15">
@@ -653,7 +662,7 @@
       <c r="O1" s="8"/>
       <c r="P1" s="8"/>
     </row>
-    <row r="2" spans="1:20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:20" s="1" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>5</v>
       </c>
@@ -726,16 +735,16 @@
       <c r="F3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="H3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="9" t="s">
         <v>32</v>
       </c>
       <c r="K3" s="5" t="s">
@@ -774,7 +783,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -788,7 +797,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
